--- a/Data.xlsx
+++ b/Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>GBPUSD</t>
   </si>
@@ -25,73 +25,280 @@
     <t>AUDUSD</t>
   </si>
   <si>
-    <t>EURGBP</t>
+    <t>UDSCHF</t>
+  </si>
+  <si>
+    <t>NZDUSD</t>
+  </si>
+  <si>
+    <t>GBPAUD</t>
   </si>
   <si>
     <t>GBPCHF</t>
   </si>
   <si>
+    <t>AUDNZD</t>
+  </si>
+  <si>
+    <t>AUDCAD</t>
+  </si>
+  <si>
+    <t>AUDCHF</t>
+  </si>
+  <si>
+    <t>NZDCAD</t>
+  </si>
+  <si>
+    <t>NZDCHF</t>
+  </si>
+  <si>
+    <t>CADCHF</t>
+  </si>
+  <si>
     <t>EURCAD</t>
   </si>
   <si>
+    <t>USDJPY</t>
+  </si>
+  <si>
     <t>EURJPY</t>
   </si>
   <si>
-    <t>2022-02-07T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-08T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-09T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-10T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-13T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-14T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-15T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-16T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-17T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-20T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-21T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-22T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-23T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-24T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-27T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-02-28T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-03-01T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-03-02T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-03-03T22:00:00Z</t>
+    <t>2022-03-07T05:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.31041</t>
+  </si>
+  <si>
+    <t>0.7314500000000000</t>
+  </si>
+  <si>
+    <t>0.92537</t>
+  </si>
+  <si>
+    <t>2022-03-08T05:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.30992</t>
+  </si>
+  <si>
+    <t>0.7265</t>
+  </si>
+  <si>
+    <t>0.92868</t>
+  </si>
+  <si>
+    <t>2022-03-09T05:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.31757</t>
+  </si>
+  <si>
+    <t>0.73182</t>
+  </si>
+  <si>
+    <t>0.92621</t>
+  </si>
+  <si>
+    <t>2022-03-10T05:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.30838</t>
+  </si>
+  <si>
+    <t>0.73544</t>
+  </si>
+  <si>
+    <t>0.9294</t>
+  </si>
+  <si>
+    <t>2022-03-11T05:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.30373</t>
+  </si>
+  <si>
+    <t>0.7289600000000000</t>
+  </si>
+  <si>
+    <t>0.9347</t>
+  </si>
+  <si>
+    <t>2022-03-14T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.30013</t>
+  </si>
+  <si>
+    <t>0.71873</t>
+  </si>
+  <si>
+    <t>0.93865</t>
+  </si>
+  <si>
+    <t>2022-03-15T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.30414</t>
+  </si>
+  <si>
+    <t>0.71948</t>
+  </si>
+  <si>
+    <t>0.94112</t>
+  </si>
+  <si>
+    <t>2022-03-16T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.31466</t>
+  </si>
+  <si>
+    <t>0.72877</t>
+  </si>
+  <si>
+    <t>0.93997</t>
+  </si>
+  <si>
+    <t>2022-03-17T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.3148</t>
+  </si>
+  <si>
+    <t>0.7376</t>
+  </si>
+  <si>
+    <t>0.93692</t>
+  </si>
+  <si>
+    <t>2022-03-18T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.31765</t>
+  </si>
+  <si>
+    <t>0.74135</t>
+  </si>
+  <si>
+    <t>0.9316100000000000</t>
+  </si>
+  <si>
+    <t>2022-03-21T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.31641</t>
+  </si>
+  <si>
+    <t>0.73993</t>
+  </si>
+  <si>
+    <t>0.9336</t>
+  </si>
+  <si>
+    <t>2022-03-22T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.32607</t>
+  </si>
+  <si>
+    <t>0.74665</t>
+  </si>
+  <si>
+    <t>0.93268</t>
+  </si>
+  <si>
+    <t>2022-03-23T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.3203</t>
+  </si>
+  <si>
+    <t>0.74987</t>
+  </si>
+  <si>
+    <t>0.93046</t>
+  </si>
+  <si>
+    <t>2022-03-24T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.3186</t>
+  </si>
+  <si>
+    <t>0.7512</t>
+  </si>
+  <si>
+    <t>0.93016</t>
+  </si>
+  <si>
+    <t>2022-03-25T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.31802</t>
+  </si>
+  <si>
+    <t>0.75139</t>
+  </si>
+  <si>
+    <t>0.93042</t>
+  </si>
+  <si>
+    <t>2022-03-28T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.3081</t>
+  </si>
+  <si>
+    <t>0.74889</t>
+  </si>
+  <si>
+    <t>0.93345</t>
+  </si>
+  <si>
+    <t>2022-03-29T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.30896</t>
+  </si>
+  <si>
+    <t>0.75067</t>
+  </si>
+  <si>
+    <t>0.93068</t>
+  </si>
+  <si>
+    <t>2022-03-30T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.31312</t>
+  </si>
+  <si>
+    <t>0.75082</t>
+  </si>
+  <si>
+    <t>0.92318</t>
+  </si>
+  <si>
+    <t>2022-03-31T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>1.31337</t>
+  </si>
+  <si>
+    <t>0.74823</t>
+  </si>
+  <si>
+    <t>0.92255</t>
+  </si>
+  <si>
+    <t>2022-04-01T04:00:00+07:00</t>
+  </si>
+  <si>
+    <t>0.7497</t>
+  </si>
+  <si>
+    <t>0.92545</t>
   </si>
 </sst>
 </file>
@@ -138,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -220,13 +427,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -236,19 +510,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -257,16 +531,55 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -288,7 +601,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffdf7f"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -487,17 +800,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -525,10 +838,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -776,12 +1089,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1068,7 +1381,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1096,10 +1409,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1350,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:BG21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1359,8 +1672,8 @@
     <col min="1" max="1" width="10.3516" style="1" customWidth="1"/>
     <col min="2" max="4" width="10.8516" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.1719" style="1" customWidth="1"/>
-    <col min="6" max="23" width="10.8516" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="6" max="59" width="10.8516" style="1" customWidth="1"/>
+    <col min="60" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
@@ -1394,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" t="s" s="7">
+      <c r="M1" t="s" s="6">
         <v>5</v>
       </c>
       <c r="N1" t="s" s="3">
@@ -1404,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="P1" s="5"/>
-      <c r="Q1" t="s" s="7">
+      <c r="Q1" t="s" s="6">
         <v>6</v>
       </c>
       <c r="R1" t="s" s="3">
@@ -1414,1173 +1727,3124 @@
         <v>2</v>
       </c>
       <c r="T1" s="5"/>
-      <c r="U1" t="s" s="7">
+      <c r="U1" t="s" s="6">
         <v>7</v>
       </c>
       <c r="V1" t="s" s="3">
         <v>1</v>
       </c>
       <c r="W1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="X1" s="4"/>
+      <c r="Y1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="4"/>
+      <c r="AC1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="AD1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="4"/>
+      <c r="AG1" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="AH1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="AL1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="4"/>
+      <c r="AO1" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="AP1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR1" s="4"/>
+      <c r="AS1" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="AT1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV1" s="4"/>
+      <c r="AW1" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="AX1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="BB1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD1" s="4"/>
+      <c r="BE1" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="BF1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG1" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" t="s" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B2" s="9">
-        <v>1.35358</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1.35488</v>
+        <v>1.32153</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>18</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" t="s" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F2" s="9">
-        <v>0.7126</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.7147</v>
+        <v>0.7371799999999999</v>
+      </c>
+      <c r="G2" t="s" s="7">
+        <v>19</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" t="s" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J2" s="9">
-        <v>0.84527</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0.8427</v>
+        <v>0.91648</v>
+      </c>
+      <c r="K2" t="s" s="7">
+        <v>20</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" t="s" s="11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N2" s="12">
-        <v>1.2501</v>
-      </c>
-      <c r="O2" s="12">
-        <v>1.2533</v>
+        <v>0.68448</v>
+      </c>
+      <c r="O2" s="13">
+        <v>0.6823399999999999</v>
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" t="s" s="11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R2" s="12">
-        <v>1.44924</v>
-      </c>
-      <c r="S2" s="12">
-        <v>1.45021</v>
+        <v>1.68141</v>
+      </c>
+      <c r="S2" s="13">
+        <v>1.67969</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" t="s" s="11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="V2" s="12">
-        <v>131.682</v>
-      </c>
-      <c r="W2" s="12">
-        <v>131.923</v>
+        <v>1.2126</v>
+      </c>
+      <c r="W2" s="13">
+        <v>1.21124</v>
+      </c>
+      <c r="X2" s="10"/>
+      <c r="Y2" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>1.07619</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>1.07194</v>
+      </c>
+      <c r="AB2" s="15"/>
+      <c r="AC2" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>0.93835</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>0.93755</v>
+      </c>
+      <c r="AF2" s="15"/>
+      <c r="AG2" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="AH2" s="12">
+        <v>0.6759500000000001</v>
+      </c>
+      <c r="AI2" s="12">
+        <v>0.67667</v>
+      </c>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="AL2" s="12">
+        <v>0.87163</v>
+      </c>
+      <c r="AM2" s="12">
+        <v>0.87416</v>
+      </c>
+      <c r="AN2" s="15"/>
+      <c r="AO2" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="AP2" s="12">
+        <v>0.62715</v>
+      </c>
+      <c r="AQ2" s="12">
+        <v>0.63088</v>
+      </c>
+      <c r="AR2" s="15"/>
+      <c r="AS2" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="AT2" s="12">
+        <v>0.7201</v>
+      </c>
+      <c r="AU2" s="12">
+        <v>0.7216</v>
+      </c>
+      <c r="AV2" s="15"/>
+      <c r="AW2" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="AX2" s="12">
+        <v>1.39003</v>
+      </c>
+      <c r="AY2" s="12">
+        <v>1.39117</v>
+      </c>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="BB2" s="12">
+        <v>114.958</v>
+      </c>
+      <c r="BC2" s="12">
+        <v>115.258</v>
+      </c>
+      <c r="BD2" s="15"/>
+      <c r="BE2" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="BF2" s="12">
+        <v>125.501</v>
+      </c>
+      <c r="BG2" s="13">
+        <v>125.118</v>
       </c>
     </row>
     <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>9</v>
+      <c r="A3" t="s" s="7">
+        <v>21</v>
       </c>
       <c r="B3" s="9">
-        <v>1.35488</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1.35346</v>
+        <v>1.31041</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>22</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" t="s" s="13">
-        <v>9</v>
+      <c r="E3" t="s" s="7">
+        <v>21</v>
       </c>
       <c r="F3" s="9">
-        <v>0.7147</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.71802</v>
+        <v>0.73145</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>23</v>
       </c>
       <c r="H3" s="10"/>
-      <c r="I3" t="s" s="13">
-        <v>9</v>
+      <c r="I3" t="s" s="7">
+        <v>21</v>
       </c>
       <c r="J3" s="9">
-        <v>0.8427</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0.84397</v>
+        <v>0.92537</v>
+      </c>
+      <c r="K3" t="s" s="7">
+        <v>24</v>
       </c>
       <c r="L3" s="10"/>
-      <c r="M3" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="N3" s="12">
-        <v>1.2533</v>
-      </c>
-      <c r="O3" s="12">
-        <v>1.25094</v>
+      <c r="M3" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="N3" s="17">
+        <v>0.6823399999999999</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0.67991</v>
       </c>
       <c r="P3" s="10"/>
-      <c r="Q3" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="R3" s="12">
-        <v>1.45021</v>
-      </c>
-      <c r="S3" s="12">
-        <v>1.44763</v>
+      <c r="Q3" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="R3" s="17">
+        <v>1.67969</v>
+      </c>
+      <c r="S3" s="18">
+        <v>1.68731</v>
       </c>
       <c r="T3" s="10"/>
-      <c r="U3" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="V3" s="12">
-        <v>131.923</v>
-      </c>
-      <c r="W3" s="12">
-        <v>131.997</v>
+      <c r="U3" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="V3" s="17">
+        <v>1.21124</v>
+      </c>
+      <c r="W3" s="18">
+        <v>1.21598</v>
+      </c>
+      <c r="X3" s="10"/>
+      <c r="Y3" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>1.07194</v>
+      </c>
+      <c r="AA3" s="17">
+        <v>1.06672</v>
+      </c>
+      <c r="AB3" s="19"/>
+      <c r="AC3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="AD3" s="17">
+        <v>0.93755</v>
+      </c>
+      <c r="AE3" s="17">
+        <v>0.9363</v>
+      </c>
+      <c r="AF3" s="19"/>
+      <c r="AG3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="AH3" s="17">
+        <v>0.67667</v>
+      </c>
+      <c r="AI3" s="17">
+        <v>0.67509</v>
+      </c>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>0.87416</v>
+      </c>
+      <c r="AM3" s="17">
+        <v>0.87612</v>
+      </c>
+      <c r="AN3" s="19"/>
+      <c r="AO3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="AP3" s="17">
+        <v>0.63088</v>
+      </c>
+      <c r="AQ3" s="17">
+        <v>0.63165</v>
+      </c>
+      <c r="AR3" s="19"/>
+      <c r="AS3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="AT3" s="17">
+        <v>0.7216</v>
+      </c>
+      <c r="AU3" s="17">
+        <v>0.72034</v>
+      </c>
+      <c r="AV3" s="19"/>
+      <c r="AW3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="AX3" s="17">
+        <v>1.39117</v>
+      </c>
+      <c r="AY3" s="17">
+        <v>1.40339</v>
+      </c>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="BB3" s="17">
+        <v>115.258</v>
+      </c>
+      <c r="BC3" s="17">
+        <v>115.624</v>
+      </c>
+      <c r="BD3" s="19"/>
+      <c r="BE3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="BF3" s="17">
+        <v>125.118</v>
+      </c>
+      <c r="BG3" s="18">
+        <v>125.959</v>
       </c>
     </row>
     <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="13">
-        <v>10</v>
+      <c r="A4" t="s" s="7">
+        <v>25</v>
       </c>
       <c r="B4" s="9">
-        <v>1.35346</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1.35614</v>
+        <v>1.30992</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>26</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" t="s" s="13">
-        <v>10</v>
+      <c r="E4" t="s" s="7">
+        <v>25</v>
       </c>
       <c r="F4" s="9">
-        <v>0.71802</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.71682</v>
+        <v>0.7265</v>
+      </c>
+      <c r="G4" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="H4" s="10"/>
-      <c r="I4" t="s" s="13">
-        <v>10</v>
+      <c r="I4" t="s" s="7">
+        <v>25</v>
       </c>
       <c r="J4" s="9">
-        <v>0.84397</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0.84265</v>
+        <v>0.9286799999999999</v>
+      </c>
+      <c r="K4" t="s" s="7">
+        <v>28</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="N4" s="12">
-        <v>1.25094</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1.25481</v>
+      <c r="M4" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="N4" s="17">
+        <v>0.67991</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0.68363</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="R4" s="12">
-        <v>1.44763</v>
-      </c>
-      <c r="S4" s="12">
-        <v>1.45382</v>
+      <c r="Q4" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="R4" s="17">
+        <v>1.68731</v>
+      </c>
+      <c r="S4" s="18">
+        <v>1.68725</v>
       </c>
       <c r="T4" s="10"/>
-      <c r="U4" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="V4" s="12">
-        <v>131.997</v>
-      </c>
-      <c r="W4" s="12">
-        <v>132.57</v>
+      <c r="U4" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="V4" s="17">
+        <v>1.21598</v>
+      </c>
+      <c r="W4" s="18">
+        <v>1.2198</v>
+      </c>
+      <c r="X4" s="10"/>
+      <c r="Y4" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>1.06672</v>
+      </c>
+      <c r="AA4" s="17">
+        <v>1.06987</v>
+      </c>
+      <c r="AB4" s="19"/>
+      <c r="AC4" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="17">
+        <v>0.9363</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>0.9372</v>
+      </c>
+      <c r="AF4" s="19"/>
+      <c r="AG4" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="AH4" s="17">
+        <v>0.67509</v>
+      </c>
+      <c r="AI4" s="17">
+        <v>0.67789</v>
+      </c>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="AL4" s="17">
+        <v>0.87612</v>
+      </c>
+      <c r="AM4" s="17">
+        <v>0.8754</v>
+      </c>
+      <c r="AN4" s="19"/>
+      <c r="AO4" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="AP4" s="17">
+        <v>0.63165</v>
+      </c>
+      <c r="AQ4" s="17">
+        <v>0.6331</v>
+      </c>
+      <c r="AR4" s="19"/>
+      <c r="AS4" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="AT4" s="17">
+        <v>0.72034</v>
+      </c>
+      <c r="AU4" s="17">
+        <v>0.72274</v>
+      </c>
+      <c r="AV4" s="19"/>
+      <c r="AW4" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="AX4" s="17">
+        <v>1.40339</v>
+      </c>
+      <c r="AY4" s="17">
+        <v>1.41788</v>
+      </c>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="BB4" s="17">
+        <v>115.624</v>
+      </c>
+      <c r="BC4" s="17">
+        <v>115.814</v>
+      </c>
+      <c r="BD4" s="19"/>
+      <c r="BE4" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="BF4" s="17">
+        <v>125.959</v>
+      </c>
+      <c r="BG4" s="18">
+        <v>128.262</v>
       </c>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="13">
-        <v>11</v>
+      <c r="A5" t="s" s="7">
+        <v>29</v>
       </c>
       <c r="B5" s="9">
-        <v>1.35614</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1.35592</v>
+        <v>1.31757</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>30</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" t="s" s="13">
-        <v>11</v>
+      <c r="E5" t="s" s="7">
+        <v>29</v>
       </c>
       <c r="F5" s="9">
-        <v>0.71682</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.71309</v>
+        <v>0.73182</v>
+      </c>
+      <c r="G5" t="s" s="7">
+        <v>31</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" t="s" s="13">
-        <v>11</v>
+      <c r="I5" t="s" s="7">
+        <v>29</v>
       </c>
       <c r="J5" s="9">
-        <v>0.84265</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0.83672</v>
+        <v>0.92621</v>
+      </c>
+      <c r="K5" t="s" s="7">
+        <v>32</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="N5" s="12">
-        <v>1.25481</v>
-      </c>
-      <c r="O5" s="12">
-        <v>1.254</v>
+      <c r="M5" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0.68363</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0.68593</v>
       </c>
       <c r="P5" s="10"/>
-      <c r="Q5" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="R5" s="12">
-        <v>1.45382</v>
-      </c>
-      <c r="S5" s="12">
-        <v>1.44522</v>
+      <c r="Q5" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="R5" s="17">
+        <v>1.68725</v>
+      </c>
+      <c r="S5" s="18">
+        <v>1.66961</v>
       </c>
       <c r="T5" s="10"/>
-      <c r="U5" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="V5" s="12">
-        <v>132.57</v>
-      </c>
-      <c r="W5" s="12">
-        <v>131.046</v>
+      <c r="U5" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="V5" s="17">
+        <v>1.2198</v>
+      </c>
+      <c r="W5" s="18">
+        <v>1.21567</v>
+      </c>
+      <c r="X5" s="10"/>
+      <c r="Y5" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>1.06987</v>
+      </c>
+      <c r="AA5" s="17">
+        <v>1.07037</v>
+      </c>
+      <c r="AB5" s="19"/>
+      <c r="AC5" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="AD5" s="17">
+        <v>0.9372</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>0.93873</v>
+      </c>
+      <c r="AF5" s="19"/>
+      <c r="AG5" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="AH5" s="17">
+        <v>0.67789</v>
+      </c>
+      <c r="AI5" s="17">
+        <v>0.68385</v>
+      </c>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="AL5" s="17">
+        <v>0.8754</v>
+      </c>
+      <c r="AM5" s="17">
+        <v>0.8756</v>
+      </c>
+      <c r="AN5" s="19"/>
+      <c r="AO5" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="AP5" s="17">
+        <v>0.6331</v>
+      </c>
+      <c r="AQ5" s="17">
+        <v>0.6376500000000001</v>
+      </c>
+      <c r="AR5" s="19"/>
+      <c r="AS5" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="AT5" s="17">
+        <v>0.72274</v>
+      </c>
+      <c r="AU5" s="17">
+        <v>0.72783</v>
+      </c>
+      <c r="AV5" s="19"/>
+      <c r="AW5" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="AX5" s="17">
+        <v>1.41788</v>
+      </c>
+      <c r="AY5" s="17">
+        <v>1.40185</v>
+      </c>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="BB5" s="17">
+        <v>115.814</v>
+      </c>
+      <c r="BC5" s="17">
+        <v>116.132</v>
+      </c>
+      <c r="BD5" s="19"/>
+      <c r="BE5" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="BF5" s="17">
+        <v>128.262</v>
+      </c>
+      <c r="BG5" s="18">
+        <v>127.585</v>
       </c>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="13">
-        <v>12</v>
+      <c r="A6" t="s" s="7">
+        <v>33</v>
       </c>
       <c r="B6" s="9">
-        <v>1.35592</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1.3533</v>
+        <v>1.30838</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>34</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" t="s" s="13">
-        <v>12</v>
+      <c r="E6" t="s" s="7">
+        <v>33</v>
       </c>
       <c r="F6" s="9">
-        <v>0.71309</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.71283</v>
+        <v>0.73544</v>
+      </c>
+      <c r="G6" t="s" s="7">
+        <v>35</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" t="s" s="13">
-        <v>12</v>
+      <c r="I6" t="s" s="7">
+        <v>33</v>
       </c>
       <c r="J6" s="9">
-        <v>0.83672</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0.83548</v>
+        <v>0.9294</v>
+      </c>
+      <c r="K6" t="s" s="7">
+        <v>36</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="N6" s="12">
-        <v>1.254</v>
-      </c>
-      <c r="O6" s="12">
-        <v>1.25141</v>
+      <c r="M6" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0.68593</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.68053</v>
       </c>
       <c r="P6" s="10"/>
-      <c r="Q6" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="R6" s="12">
-        <v>1.44522</v>
-      </c>
-      <c r="S6" s="12">
-        <v>1.43894</v>
+      <c r="Q6" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="R6" s="17">
+        <v>1.66961</v>
+      </c>
+      <c r="S6" s="18">
+        <v>1.66179</v>
       </c>
       <c r="T6" s="10"/>
-      <c r="U6" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="V6" s="12">
-        <v>131.046</v>
-      </c>
-      <c r="W6" s="12">
-        <v>130.636</v>
+      <c r="U6" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="V6" s="17">
+        <v>1.21567</v>
+      </c>
+      <c r="W6" s="18">
+        <v>1.21842</v>
+      </c>
+      <c r="X6" s="10"/>
+      <c r="Y6" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>1.07037</v>
+      </c>
+      <c r="AA6" s="17">
+        <v>1.07092</v>
+      </c>
+      <c r="AB6" s="19"/>
+      <c r="AC6" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="AD6" s="17">
+        <v>0.93873</v>
+      </c>
+      <c r="AE6" s="17">
+        <v>0.92935</v>
+      </c>
+      <c r="AF6" s="19"/>
+      <c r="AG6" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="AH6" s="17">
+        <v>0.68385</v>
+      </c>
+      <c r="AI6" s="17">
+        <v>0.68125</v>
+      </c>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="AL6" s="17">
+        <v>0.8756</v>
+      </c>
+      <c r="AM6" s="17">
+        <v>0.8665</v>
+      </c>
+      <c r="AN6" s="19"/>
+      <c r="AO6" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="AP6" s="17">
+        <v>0.6376500000000001</v>
+      </c>
+      <c r="AQ6" s="17">
+        <v>0.6352</v>
+      </c>
+      <c r="AR6" s="19"/>
+      <c r="AS6" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="AT6" s="17">
+        <v>0.72783</v>
+      </c>
+      <c r="AU6" s="17">
+        <v>0.73285</v>
+      </c>
+      <c r="AV6" s="19"/>
+      <c r="AW6" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="AX6" s="17">
+        <v>1.40185</v>
+      </c>
+      <c r="AY6" s="17">
+        <v>1.39082</v>
+      </c>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="BB6" s="17">
+        <v>116.132</v>
+      </c>
+      <c r="BC6" s="17">
+        <v>117.27</v>
+      </c>
+      <c r="BD6" s="19"/>
+      <c r="BE6" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="BF6" s="17">
+        <v>127.585</v>
+      </c>
+      <c r="BG6" s="18">
+        <v>127.947</v>
       </c>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" t="s" s="13">
-        <v>13</v>
+      <c r="A7" t="s" s="7">
+        <v>37</v>
       </c>
       <c r="B7" s="9">
-        <v>1.3533</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1.35432</v>
+        <v>1.30332</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>38</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" t="s" s="13">
-        <v>13</v>
+      <c r="E7" t="s" s="7">
+        <v>37</v>
       </c>
       <c r="F7" s="9">
-        <v>0.71283</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.71518</v>
+        <v>0.7288</v>
+      </c>
+      <c r="G7" t="s" s="7">
+        <v>39</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" t="s" s="13">
-        <v>13</v>
+      <c r="I7" t="s" s="7">
+        <v>37</v>
       </c>
       <c r="J7" s="9">
-        <v>0.83548</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0.83872</v>
+        <v>0.93303</v>
+      </c>
+      <c r="K7" t="s" s="7">
+        <v>40</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="N7" s="12">
-        <v>1.25141</v>
-      </c>
-      <c r="O7" s="12">
-        <v>1.2532</v>
+      <c r="M7" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0.68052</v>
+      </c>
+      <c r="O7" s="18">
+        <v>0.67453</v>
       </c>
       <c r="P7" s="10"/>
-      <c r="Q7" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="R7" s="12">
-        <v>1.43894</v>
-      </c>
-      <c r="S7" s="12">
-        <v>1.44446</v>
+      <c r="Q7" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="R7" s="17">
+        <v>1.65958</v>
+      </c>
+      <c r="S7" s="18">
+        <v>1.66702</v>
       </c>
       <c r="T7" s="10"/>
-      <c r="U7" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="V7" s="12">
-        <v>130.636</v>
-      </c>
-      <c r="W7" s="12">
-        <v>131.3</v>
+      <c r="U7" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="V7" s="17">
+        <v>1.21633</v>
+      </c>
+      <c r="W7" s="18">
+        <v>1.22001</v>
+      </c>
+      <c r="X7" s="10"/>
+      <c r="Y7" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>1.07092</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>1.06557</v>
+      </c>
+      <c r="AB7" s="19"/>
+      <c r="AC7" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>0.92935</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>0.92155</v>
+      </c>
+      <c r="AF7" s="19"/>
+      <c r="AG7" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="AH7" s="17">
+        <v>0.68033</v>
+      </c>
+      <c r="AI7" s="17">
+        <v>0.67459</v>
+      </c>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="AL7" s="17">
+        <v>0.8665</v>
+      </c>
+      <c r="AM7" s="17">
+        <v>0.86485</v>
+      </c>
+      <c r="AN7" s="19"/>
+      <c r="AO7" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="AP7" s="17">
+        <v>0.63541</v>
+      </c>
+      <c r="AQ7" s="17">
+        <v>0.63305</v>
+      </c>
+      <c r="AR7" s="19"/>
+      <c r="AS7" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="AT7" s="17">
+        <v>0.73265</v>
+      </c>
+      <c r="AU7" s="17">
+        <v>0.7318</v>
+      </c>
+      <c r="AV7" s="19"/>
+      <c r="AW7" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="AX7" s="17">
+        <v>1.39048</v>
+      </c>
+      <c r="AY7" s="17">
+        <v>1.40269</v>
+      </c>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="BB7" s="17">
+        <v>117.278</v>
+      </c>
+      <c r="BC7" s="17">
+        <v>118.182</v>
+      </c>
+      <c r="BD7" s="19"/>
+      <c r="BE7" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="BF7" s="17">
+        <v>128.088</v>
+      </c>
+      <c r="BG7" s="18">
+        <v>129.271</v>
       </c>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" t="s" s="13">
-        <v>14</v>
+      <c r="A8" t="s" s="7">
+        <v>41</v>
       </c>
       <c r="B8" s="9">
-        <v>1.35432</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1.35829</v>
+        <v>1.30013</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>42</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" t="s" s="13">
-        <v>14</v>
+      <c r="E8" t="s" s="7">
+        <v>41</v>
       </c>
       <c r="F8" s="9">
-        <v>0.71518</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0.71948</v>
+        <v>0.71873</v>
+      </c>
+      <c r="G8" t="s" s="7">
+        <v>43</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" t="s" s="13">
-        <v>14</v>
+      <c r="I8" t="s" s="7">
+        <v>41</v>
       </c>
       <c r="J8" s="9">
-        <v>0.83872</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0.83732</v>
+        <v>0.93865</v>
+      </c>
+      <c r="K8" t="s" s="7">
+        <v>44</v>
       </c>
       <c r="L8" s="10"/>
-      <c r="M8" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="N8" s="12">
-        <v>1.2532</v>
-      </c>
-      <c r="O8" s="12">
-        <v>1.25268</v>
+      <c r="M8" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0.67453</v>
+      </c>
+      <c r="O8" s="18">
+        <v>0.67702</v>
       </c>
       <c r="P8" s="10"/>
-      <c r="Q8" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="R8" s="12">
-        <v>1.44446</v>
-      </c>
-      <c r="S8" s="12">
-        <v>1.44382</v>
+      <c r="Q8" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="R8" s="17">
+        <v>1.66702</v>
+      </c>
+      <c r="S8" s="18">
+        <v>1.66448</v>
       </c>
       <c r="T8" s="10"/>
-      <c r="U8" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="V8" s="12">
-        <v>131.3</v>
-      </c>
-      <c r="W8" s="12">
-        <v>131.314</v>
+      <c r="U8" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="V8" s="17">
+        <v>1.22001</v>
+      </c>
+      <c r="W8" s="18">
+        <v>1.22628</v>
+      </c>
+      <c r="X8" s="10"/>
+      <c r="Y8" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>1.06557</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>1.06261</v>
+      </c>
+      <c r="AB8" s="19"/>
+      <c r="AC8" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>0.92155</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>0.91815</v>
+      </c>
+      <c r="AF8" s="19"/>
+      <c r="AG8" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="AH8" s="17">
+        <v>0.67459</v>
+      </c>
+      <c r="AI8" s="17">
+        <v>0.67697</v>
+      </c>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="AL8" s="17">
+        <v>0.86485</v>
+      </c>
+      <c r="AM8" s="17">
+        <v>0.864</v>
+      </c>
+      <c r="AN8" s="19"/>
+      <c r="AO8" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="AP8" s="17">
+        <v>0.63305</v>
+      </c>
+      <c r="AQ8" s="17">
+        <v>0.63705</v>
+      </c>
+      <c r="AR8" s="19"/>
+      <c r="AS8" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="AT8" s="17">
+        <v>0.7318</v>
+      </c>
+      <c r="AU8" s="17">
+        <v>0.73715</v>
+      </c>
+      <c r="AV8" s="19"/>
+      <c r="AW8" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="AX8" s="17">
+        <v>1.40269</v>
+      </c>
+      <c r="AY8" s="17">
+        <v>1.39803</v>
+      </c>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="BB8" s="17">
+        <v>118.182</v>
+      </c>
+      <c r="BC8" s="17">
+        <v>118.292</v>
+      </c>
+      <c r="BD8" s="19"/>
+      <c r="BE8" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="BF8" s="17">
+        <v>129.271</v>
+      </c>
+      <c r="BG8" s="18">
+        <v>129.584</v>
       </c>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" t="s" s="13">
-        <v>15</v>
+      <c r="A9" t="s" s="7">
+        <v>45</v>
       </c>
       <c r="B9" s="9">
-        <v>1.35829</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1.36144</v>
+        <v>1.30414</v>
+      </c>
+      <c r="C9" t="s" s="7">
+        <v>46</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" t="s" s="13">
-        <v>15</v>
+      <c r="E9" t="s" s="7">
+        <v>45</v>
       </c>
       <c r="F9" s="9">
         <v>0.71948</v>
       </c>
-      <c r="G9" s="9">
-        <v>0.71878</v>
+      <c r="G9" t="s" s="7">
+        <v>47</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" t="s" s="13">
-        <v>15</v>
+      <c r="I9" t="s" s="7">
+        <v>45</v>
       </c>
       <c r="J9" s="9">
-        <v>0.83732</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0.83453</v>
+        <v>0.94112</v>
+      </c>
+      <c r="K9" t="s" s="7">
+        <v>48</v>
       </c>
       <c r="L9" s="10"/>
-      <c r="M9" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="N9" s="12">
-        <v>1.25268</v>
-      </c>
-      <c r="O9" s="12">
-        <v>1.25278</v>
+      <c r="M9" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0.67702</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0.68358</v>
       </c>
       <c r="P9" s="10"/>
-      <c r="Q9" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="R9" s="12">
-        <v>1.44382</v>
-      </c>
-      <c r="S9" s="12">
-        <v>1.44398</v>
+      <c r="Q9" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="R9" s="17">
+        <v>1.66448</v>
+      </c>
+      <c r="S9" s="18">
+        <v>1.66638</v>
       </c>
       <c r="T9" s="10"/>
-      <c r="U9" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="V9" s="12">
-        <v>131.314</v>
-      </c>
-      <c r="W9" s="12">
-        <v>130.576</v>
+      <c r="U9" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="V9" s="17">
+        <v>1.22628</v>
+      </c>
+      <c r="W9" s="18">
+        <v>1.23542</v>
+      </c>
+      <c r="X9" s="10"/>
+      <c r="Y9" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>1.06261</v>
+      </c>
+      <c r="AA9" s="17">
+        <v>1.06526</v>
+      </c>
+      <c r="AB9" s="19"/>
+      <c r="AC9" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>0.91815</v>
+      </c>
+      <c r="AE9" s="17">
+        <v>0.9237</v>
+      </c>
+      <c r="AF9" s="19"/>
+      <c r="AG9" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="AH9" s="17">
+        <v>0.67697</v>
+      </c>
+      <c r="AI9" s="17">
+        <v>0.68531</v>
+      </c>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="AL9" s="17">
+        <v>0.864</v>
+      </c>
+      <c r="AM9" s="17">
+        <v>0.8665</v>
+      </c>
+      <c r="AN9" s="19"/>
+      <c r="AO9" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="AP9" s="17">
+        <v>0.63705</v>
+      </c>
+      <c r="AQ9" s="17">
+        <v>0.64274</v>
+      </c>
+      <c r="AR9" s="19"/>
+      <c r="AS9" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="AT9" s="17">
+        <v>0.73715</v>
+      </c>
+      <c r="AU9" s="17">
+        <v>0.74133</v>
+      </c>
+      <c r="AV9" s="19"/>
+      <c r="AW9" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="AX9" s="17">
+        <v>1.39803</v>
+      </c>
+      <c r="AY9" s="17">
+        <v>1.39852</v>
+      </c>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="BB9" s="17">
+        <v>118.292</v>
+      </c>
+      <c r="BC9" s="17">
+        <v>118.702</v>
+      </c>
+      <c r="BD9" s="19"/>
+      <c r="BE9" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="BF9" s="17">
+        <v>129.584</v>
+      </c>
+      <c r="BG9" s="18">
+        <v>131.013</v>
       </c>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" t="s" s="13">
-        <v>16</v>
+      <c r="A10" t="s" s="7">
+        <v>49</v>
       </c>
       <c r="B10" s="9">
-        <v>1.36144</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1.35874</v>
+        <v>1.31466</v>
+      </c>
+      <c r="C10" t="s" s="7">
+        <v>50</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" t="s" s="13">
-        <v>16</v>
+      <c r="E10" t="s" s="7">
+        <v>49</v>
       </c>
       <c r="F10" s="9">
-        <v>0.71878</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.71788</v>
+        <v>0.72877</v>
+      </c>
+      <c r="G10" t="s" s="7">
+        <v>51</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" t="s" s="13">
-        <v>16</v>
+      <c r="I10" t="s" s="7">
+        <v>49</v>
       </c>
       <c r="J10" s="9">
-        <v>0.83453</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0.83324</v>
+        <v>0.93997</v>
+      </c>
+      <c r="K10" t="s" s="7">
+        <v>52</v>
       </c>
       <c r="L10" s="10"/>
-      <c r="M10" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="N10" s="12">
-        <v>1.25278</v>
-      </c>
-      <c r="O10" s="12">
-        <v>1.25197</v>
+      <c r="M10" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0.68358</v>
+      </c>
+      <c r="O10" s="18">
+        <v>0.68807</v>
       </c>
       <c r="P10" s="10"/>
-      <c r="Q10" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="R10" s="12">
-        <v>1.44398</v>
-      </c>
-      <c r="S10" s="12">
-        <v>1.44415</v>
+      <c r="Q10" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="R10" s="17">
+        <v>1.66638</v>
+      </c>
+      <c r="S10" s="18">
+        <v>1.6598</v>
       </c>
       <c r="T10" s="10"/>
-      <c r="U10" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="V10" s="12">
-        <v>130.576</v>
-      </c>
-      <c r="W10" s="12">
-        <v>130.318</v>
+      <c r="U10" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="V10" s="17">
+        <v>1.23542</v>
+      </c>
+      <c r="W10" s="18">
+        <v>1.23029</v>
+      </c>
+      <c r="X10" s="10"/>
+      <c r="Y10" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>1.06526</v>
+      </c>
+      <c r="AA10" s="17">
+        <v>1.07143</v>
+      </c>
+      <c r="AB10" s="19"/>
+      <c r="AC10" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="17">
+        <v>0.9237</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>0.93125</v>
+      </c>
+      <c r="AF10" s="19"/>
+      <c r="AG10" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="AH10" s="17">
+        <v>0.68531</v>
+      </c>
+      <c r="AI10" s="17">
+        <v>0.69092</v>
+      </c>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="AL10" s="17">
+        <v>0.8665</v>
+      </c>
+      <c r="AM10" s="17">
+        <v>0.86865</v>
+      </c>
+      <c r="AN10" s="19"/>
+      <c r="AO10" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="AP10" s="17">
+        <v>0.64274</v>
+      </c>
+      <c r="AQ10" s="17">
+        <v>0.6445</v>
+      </c>
+      <c r="AR10" s="19"/>
+      <c r="AS10" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="AT10" s="17">
+        <v>0.74133</v>
+      </c>
+      <c r="AU10" s="17">
+        <v>0.74175</v>
+      </c>
+      <c r="AV10" s="19"/>
+      <c r="AW10" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="AX10" s="17">
+        <v>1.39852</v>
+      </c>
+      <c r="AY10" s="17">
+        <v>1.40009</v>
+      </c>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="BB10" s="17">
+        <v>118.702</v>
+      </c>
+      <c r="BC10" s="17">
+        <v>118.588</v>
+      </c>
+      <c r="BD10" s="19"/>
+      <c r="BE10" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="BF10" s="17">
+        <v>131.013</v>
+      </c>
+      <c r="BG10" s="18">
+        <v>131.522</v>
       </c>
     </row>
     <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" t="s" s="13">
-        <v>17</v>
+      <c r="A11" t="s" s="7">
+        <v>53</v>
       </c>
       <c r="B11" s="9">
-        <v>1.35874</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1.36005</v>
+        <v>1.3148</v>
+      </c>
+      <c r="C11" t="s" s="7">
+        <v>54</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" t="s" s="13">
-        <v>17</v>
+      <c r="E11" t="s" s="7">
+        <v>53</v>
       </c>
       <c r="F11" s="9">
-        <v>0.71788</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.71888</v>
+        <v>0.7376</v>
+      </c>
+      <c r="G11" t="s" s="7">
+        <v>55</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" t="s" s="13">
-        <v>17</v>
+      <c r="I11" t="s" s="7">
+        <v>53</v>
       </c>
       <c r="J11" s="9">
-        <v>0.83324</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0.83144</v>
+        <v>0.93692</v>
+      </c>
+      <c r="K11" t="s" s="7">
+        <v>56</v>
       </c>
       <c r="L11" s="10"/>
-      <c r="M11" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="N11" s="12">
-        <v>1.25197</v>
-      </c>
-      <c r="O11" s="12">
-        <v>1.24585</v>
+      <c r="M11" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0.68807</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0.69043</v>
       </c>
       <c r="P11" s="10"/>
-      <c r="Q11" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="R11" s="12">
-        <v>1.44415</v>
-      </c>
-      <c r="S11" s="12">
-        <v>1.44252</v>
+      <c r="Q11" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="R11" s="17">
+        <v>1.6598</v>
+      </c>
+      <c r="S11" s="18">
+        <v>1.66053</v>
       </c>
       <c r="T11" s="10"/>
-      <c r="U11" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="V11" s="12">
-        <v>130.318</v>
-      </c>
-      <c r="W11" s="12">
-        <v>129.76</v>
+      <c r="U11" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="V11" s="17">
+        <v>1.23029</v>
+      </c>
+      <c r="W11" s="18">
+        <v>1.22723</v>
+      </c>
+      <c r="X11" s="10"/>
+      <c r="Y11" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>1.07143</v>
+      </c>
+      <c r="AA11" s="17">
+        <v>1.07325</v>
+      </c>
+      <c r="AB11" s="19"/>
+      <c r="AC11" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="AD11" s="17">
+        <v>0.93125</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>0.9343</v>
+      </c>
+      <c r="AF11" s="19"/>
+      <c r="AG11" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="AH11" s="17">
+        <v>0.69092</v>
+      </c>
+      <c r="AI11" s="17">
+        <v>0.69063</v>
+      </c>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="AL11" s="17">
+        <v>0.86865</v>
+      </c>
+      <c r="AM11" s="17">
+        <v>0.87015</v>
+      </c>
+      <c r="AN11" s="19"/>
+      <c r="AO11" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="AP11" s="17">
+        <v>0.6445</v>
+      </c>
+      <c r="AQ11" s="17">
+        <v>0.6432</v>
+      </c>
+      <c r="AR11" s="19"/>
+      <c r="AS11" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="AT11" s="17">
+        <v>0.74175</v>
+      </c>
+      <c r="AU11" s="17">
+        <v>0.739</v>
+      </c>
+      <c r="AV11" s="19"/>
+      <c r="AW11" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="AX11" s="17">
+        <v>1.40009</v>
+      </c>
+      <c r="AY11" s="17">
+        <v>1.39265</v>
+      </c>
+      <c r="AZ11" s="19"/>
+      <c r="BA11" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="BB11" s="17">
+        <v>118.588</v>
+      </c>
+      <c r="BC11" s="17">
+        <v>119.145</v>
+      </c>
+      <c r="BD11" s="19"/>
+      <c r="BE11" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="BF11" s="17">
+        <v>131.522</v>
+      </c>
+      <c r="BG11" s="18">
+        <v>131.662</v>
       </c>
     </row>
     <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" t="s" s="13">
-        <v>18</v>
+      <c r="A12" t="s" s="7">
+        <v>57</v>
       </c>
       <c r="B12" s="9">
-        <v>1.36005</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1.35866</v>
+        <v>1.31701</v>
+      </c>
+      <c r="C12" t="s" s="7">
+        <v>58</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" t="s" s="13">
-        <v>18</v>
+      <c r="E12" t="s" s="7">
+        <v>57</v>
       </c>
       <c r="F12" s="9">
-        <v>0.71888</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0.72182</v>
+        <v>0.7403999999999999</v>
+      </c>
+      <c r="G12" t="s" s="7">
+        <v>59</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" t="s" s="13">
-        <v>18</v>
+      <c r="I12" t="s" s="7">
+        <v>57</v>
       </c>
       <c r="J12" s="9">
-        <v>0.83144</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0.83366</v>
+        <v>0.93161</v>
+      </c>
+      <c r="K12" t="s" s="7">
+        <v>60</v>
       </c>
       <c r="L12" s="10"/>
-      <c r="M12" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="N12" s="12">
-        <v>1.24585</v>
-      </c>
-      <c r="O12" s="12">
-        <v>1.25212</v>
+      <c r="M12" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="N12" s="17">
+        <v>0.69043</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0.68843</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="R12" s="12">
-        <v>1.44252</v>
-      </c>
-      <c r="S12" s="12">
-        <v>1.44636</v>
+      <c r="Q12" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="R12" s="17">
+        <v>1.66053</v>
+      </c>
+      <c r="S12" s="18">
+        <v>1.65717</v>
       </c>
       <c r="T12" s="10"/>
-      <c r="U12" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="V12" s="12">
-        <v>129.76</v>
-      </c>
-      <c r="W12" s="12">
-        <v>130.318</v>
+      <c r="U12" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="V12" s="17">
+        <v>1.22723</v>
+      </c>
+      <c r="W12" s="18">
+        <v>1.22784</v>
+      </c>
+      <c r="X12" s="10"/>
+      <c r="Y12" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>1.07325</v>
+      </c>
+      <c r="AA12" s="17">
+        <v>1.07421</v>
+      </c>
+      <c r="AB12" s="19"/>
+      <c r="AC12" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="AD12" s="17">
+        <v>0.9343</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>0.93165</v>
+      </c>
+      <c r="AF12" s="19"/>
+      <c r="AG12" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="AH12" s="17">
+        <v>0.69063</v>
+      </c>
+      <c r="AI12" s="17">
+        <v>0.69077</v>
+      </c>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="AL12" s="17">
+        <v>0.87015</v>
+      </c>
+      <c r="AM12" s="17">
+        <v>0.86675</v>
+      </c>
+      <c r="AN12" s="19"/>
+      <c r="AO12" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="AP12" s="17">
+        <v>0.6432</v>
+      </c>
+      <c r="AQ12" s="17">
+        <v>0.6425999999999999</v>
+      </c>
+      <c r="AR12" s="19"/>
+      <c r="AS12" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="AT12" s="17">
+        <v>0.739</v>
+      </c>
+      <c r="AU12" s="17">
+        <v>0.74115</v>
+      </c>
+      <c r="AV12" s="19"/>
+      <c r="AW12" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="AX12" s="17">
+        <v>1.39265</v>
+      </c>
+      <c r="AY12" s="17">
+        <v>1.38681</v>
+      </c>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="BB12" s="17">
+        <v>119.145</v>
+      </c>
+      <c r="BC12" s="17">
+        <v>119.47</v>
+      </c>
+      <c r="BD12" s="19"/>
+      <c r="BE12" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="BF12" s="17">
+        <v>131.662</v>
+      </c>
+      <c r="BG12" s="18">
+        <v>131.596</v>
       </c>
     </row>
     <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" t="s" s="13">
-        <v>19</v>
+      <c r="A13" t="s" s="7">
+        <v>61</v>
       </c>
       <c r="B13" s="9">
-        <v>1.35866</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1.35466</v>
+        <v>1.31641</v>
+      </c>
+      <c r="C13" t="s" s="7">
+        <v>62</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" t="s" s="13">
-        <v>19</v>
+      <c r="E13" t="s" s="7">
+        <v>61</v>
       </c>
       <c r="F13" s="9">
-        <v>0.72182</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.72326</v>
+        <v>0.73993</v>
+      </c>
+      <c r="G13" t="s" s="7">
+        <v>63</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" t="s" s="13">
-        <v>19</v>
+      <c r="I13" t="s" s="7">
+        <v>61</v>
       </c>
       <c r="J13" s="9">
-        <v>0.83366</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0.83448</v>
+        <v>0.9336</v>
+      </c>
+      <c r="K13" t="s" s="7">
+        <v>64</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="N13" s="12">
-        <v>1.25212</v>
-      </c>
-      <c r="O13" s="12">
-        <v>1.24404</v>
+      <c r="M13" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="N13" s="17">
+        <v>0.68843</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0.69625</v>
       </c>
       <c r="P13" s="10"/>
-      <c r="Q13" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="R13" s="12">
-        <v>1.44636</v>
-      </c>
-      <c r="S13" s="12">
-        <v>1.43976</v>
+      <c r="Q13" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="R13" s="17">
+        <v>1.65717</v>
+      </c>
+      <c r="S13" s="18">
+        <v>1.66637</v>
       </c>
       <c r="T13" s="10"/>
-      <c r="U13" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="V13" s="12">
-        <v>130.318</v>
-      </c>
-      <c r="W13" s="12">
-        <v>130.026</v>
+      <c r="U13" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="V13" s="17">
+        <v>1.22784</v>
+      </c>
+      <c r="W13" s="18">
+        <v>1.23542</v>
+      </c>
+      <c r="X13" s="10"/>
+      <c r="Y13" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>1.07421</v>
+      </c>
+      <c r="AA13" s="17">
+        <v>1.07185</v>
+      </c>
+      <c r="AB13" s="19"/>
+      <c r="AC13" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="AD13" s="17">
+        <v>0.93165</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>0.9386100000000001</v>
+      </c>
+      <c r="AF13" s="19"/>
+      <c r="AG13" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="AH13" s="17">
+        <v>0.69077</v>
+      </c>
+      <c r="AI13" s="17">
+        <v>0.69638</v>
+      </c>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="AL13" s="17">
+        <v>0.86675</v>
+      </c>
+      <c r="AM13" s="17">
+        <v>0.87505</v>
+      </c>
+      <c r="AN13" s="19"/>
+      <c r="AO13" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="AP13" s="17">
+        <v>0.6425999999999999</v>
+      </c>
+      <c r="AQ13" s="17">
+        <v>0.64905</v>
+      </c>
+      <c r="AR13" s="19"/>
+      <c r="AS13" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="AT13" s="17">
+        <v>0.74115</v>
+      </c>
+      <c r="AU13" s="17">
+        <v>0.7418</v>
+      </c>
+      <c r="AV13" s="19"/>
+      <c r="AW13" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="AX13" s="17">
+        <v>1.38681</v>
+      </c>
+      <c r="AY13" s="17">
+        <v>1.38532</v>
+      </c>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="BB13" s="17">
+        <v>119.47</v>
+      </c>
+      <c r="BC13" s="17">
+        <v>120.761</v>
+      </c>
+      <c r="BD13" s="19"/>
+      <c r="BE13" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="BF13" s="17">
+        <v>131.596</v>
+      </c>
+      <c r="BG13" s="18">
+        <v>133.155</v>
       </c>
     </row>
     <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" t="s" s="13">
-        <v>20</v>
+      <c r="A14" t="s" s="7">
+        <v>65</v>
       </c>
       <c r="B14" s="9">
-        <v>1.35466</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1.33727</v>
+        <v>1.32607</v>
+      </c>
+      <c r="C14" t="s" s="7">
+        <v>66</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" t="s" s="13">
-        <v>20</v>
+      <c r="E14" t="s" s="7">
+        <v>65</v>
       </c>
       <c r="F14" s="9">
-        <v>0.72326</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.71618</v>
+        <v>0.74665</v>
+      </c>
+      <c r="G14" t="s" s="7">
+        <v>67</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" t="s" s="13">
-        <v>20</v>
+      <c r="I14" t="s" s="7">
+        <v>65</v>
       </c>
       <c r="J14" s="9">
-        <v>0.83448</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0.83712</v>
+        <v>0.93268</v>
+      </c>
+      <c r="K14" t="s" s="7">
+        <v>68</v>
       </c>
       <c r="L14" s="10"/>
-      <c r="M14" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="N14" s="12">
-        <v>1.24404</v>
-      </c>
-      <c r="O14" s="12">
-        <v>1.23734</v>
+      <c r="M14" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="N14" s="17">
+        <v>0.69625</v>
+      </c>
+      <c r="O14" s="18">
+        <v>0.69733</v>
       </c>
       <c r="P14" s="10"/>
-      <c r="Q14" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="R14" s="12">
-        <v>1.43976</v>
-      </c>
-      <c r="S14" s="12">
-        <v>1.43487</v>
+      <c r="Q14" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="R14" s="17">
+        <v>1.66637</v>
+      </c>
+      <c r="S14" s="18">
+        <v>1.65762</v>
       </c>
       <c r="T14" s="10"/>
-      <c r="U14" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="V14" s="12">
-        <v>130.026</v>
-      </c>
-      <c r="W14" s="12">
-        <v>129.323</v>
+      <c r="U14" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="V14" s="17">
+        <v>1.23542</v>
+      </c>
+      <c r="W14" s="18">
+        <v>1.22735</v>
+      </c>
+      <c r="X14" s="10"/>
+      <c r="Y14" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>1.07185</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>1.07498</v>
+      </c>
+      <c r="AB14" s="19"/>
+      <c r="AC14" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>0.9386100000000001</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>0.94164</v>
+      </c>
+      <c r="AF14" s="19"/>
+      <c r="AG14" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="AH14" s="17">
+        <v>0.69638</v>
+      </c>
+      <c r="AI14" s="17">
+        <v>0.69768</v>
+      </c>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="AL14" s="17">
+        <v>0.87505</v>
+      </c>
+      <c r="AM14" s="17">
+        <v>0.8754999999999999</v>
+      </c>
+      <c r="AN14" s="19"/>
+      <c r="AO14" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="AP14" s="17">
+        <v>0.64905</v>
+      </c>
+      <c r="AQ14" s="17">
+        <v>0.6486499999999999</v>
+      </c>
+      <c r="AR14" s="19"/>
+      <c r="AS14" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="AT14" s="17">
+        <v>0.7418</v>
+      </c>
+      <c r="AU14" s="17">
+        <v>0.7405</v>
+      </c>
+      <c r="AV14" s="19"/>
+      <c r="AW14" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="AX14" s="17">
+        <v>1.38532</v>
+      </c>
+      <c r="AY14" s="17">
+        <v>1.38131</v>
+      </c>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="BB14" s="17">
+        <v>120.761</v>
+      </c>
+      <c r="BC14" s="17">
+        <v>121.147</v>
+      </c>
+      <c r="BD14" s="19"/>
+      <c r="BE14" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="BF14" s="17">
+        <v>133.155</v>
+      </c>
+      <c r="BG14" s="18">
+        <v>133.281</v>
       </c>
     </row>
     <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" t="s" s="13">
-        <v>21</v>
+      <c r="A15" t="s" s="7">
+        <v>69</v>
       </c>
       <c r="B15" s="9">
-        <v>1.33727</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1.34137</v>
+        <v>1.3203</v>
+      </c>
+      <c r="C15" t="s" s="7">
+        <v>70</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" t="s" s="13">
-        <v>21</v>
+      <c r="E15" t="s" s="7">
+        <v>69</v>
       </c>
       <c r="F15" s="9">
-        <v>0.71618</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0.72307</v>
+        <v>0.74987</v>
+      </c>
+      <c r="G15" t="s" s="7">
+        <v>71</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" t="s" s="13">
-        <v>21</v>
+      <c r="I15" t="s" s="7">
+        <v>69</v>
       </c>
       <c r="J15" s="9">
-        <v>0.83712</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0.84036</v>
+        <v>0.93046</v>
+      </c>
+      <c r="K15" t="s" s="7">
+        <v>72</v>
       </c>
       <c r="L15" s="10"/>
-      <c r="M15" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="N15" s="12">
-        <v>1.23734</v>
-      </c>
-      <c r="O15" s="12">
-        <v>1.2415</v>
+      <c r="M15" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="N15" s="17">
+        <v>0.69733</v>
+      </c>
+      <c r="O15" s="18">
+        <v>0.69639</v>
       </c>
       <c r="P15" s="10"/>
-      <c r="Q15" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="R15" s="12">
-        <v>1.43487</v>
-      </c>
-      <c r="S15" s="12">
-        <v>1.43144</v>
+      <c r="Q15" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="R15" s="17">
+        <v>1.65762</v>
+      </c>
+      <c r="S15" s="18">
+        <v>1.65149</v>
       </c>
       <c r="T15" s="10"/>
-      <c r="U15" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="V15" s="12">
-        <v>129.323</v>
-      </c>
-      <c r="W15" s="12">
-        <v>130.228</v>
+      <c r="U15" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="V15" s="17">
+        <v>1.22735</v>
+      </c>
+      <c r="W15" s="18">
+        <v>1.2252</v>
+      </c>
+      <c r="X15" s="10"/>
+      <c r="Y15" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="Z15" s="17">
+        <v>1.07498</v>
+      </c>
+      <c r="AA15" s="17">
+        <v>1.07854</v>
+      </c>
+      <c r="AB15" s="19"/>
+      <c r="AC15" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="AD15" s="17">
+        <v>0.94164</v>
+      </c>
+      <c r="AE15" s="17">
+        <v>0.94075</v>
+      </c>
+      <c r="AF15" s="19"/>
+      <c r="AG15" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="AH15" s="17">
+        <v>0.69768</v>
+      </c>
+      <c r="AI15" s="17">
+        <v>0.69863</v>
+      </c>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="AL15" s="17">
+        <v>0.8754999999999999</v>
+      </c>
+      <c r="AM15" s="17">
+        <v>0.87215</v>
+      </c>
+      <c r="AN15" s="19"/>
+      <c r="AO15" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="AP15" s="17">
+        <v>0.6486499999999999</v>
+      </c>
+      <c r="AQ15" s="17">
+        <v>0.6476499999999999</v>
+      </c>
+      <c r="AR15" s="19"/>
+      <c r="AS15" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="AT15" s="17">
+        <v>0.7405</v>
+      </c>
+      <c r="AU15" s="17">
+        <v>0.7424500000000001</v>
+      </c>
+      <c r="AV15" s="19"/>
+      <c r="AW15" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="AX15" s="17">
+        <v>1.38131</v>
+      </c>
+      <c r="AY15" s="17">
+        <v>1.37717</v>
+      </c>
+      <c r="AZ15" s="19"/>
+      <c r="BA15" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="BB15" s="17">
+        <v>121.147</v>
+      </c>
+      <c r="BC15" s="17">
+        <v>122.325</v>
+      </c>
+      <c r="BD15" s="19"/>
+      <c r="BE15" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="BF15" s="17">
+        <v>133.281</v>
+      </c>
+      <c r="BG15" s="18">
+        <v>134.525</v>
       </c>
     </row>
     <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" t="s" s="13">
-        <v>22</v>
+      <c r="A16" t="s" s="7">
+        <v>73</v>
       </c>
       <c r="B16" s="9">
-        <v>1.34137</v>
-      </c>
-      <c r="C16" s="9">
-        <v>1.34218</v>
+        <v>1.3186</v>
+      </c>
+      <c r="C16" t="s" s="7">
+        <v>74</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" t="s" s="13">
-        <v>22</v>
+      <c r="E16" t="s" s="7">
+        <v>73</v>
       </c>
       <c r="F16" s="9">
-        <v>0.72307</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0.72638</v>
+        <v>0.7512</v>
+      </c>
+      <c r="G16" t="s" s="7">
+        <v>75</v>
       </c>
       <c r="H16" s="10"/>
-      <c r="I16" t="s" s="13">
-        <v>22</v>
+      <c r="I16" t="s" s="7">
+        <v>73</v>
       </c>
       <c r="J16" s="9">
-        <v>0.84036</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0.83588</v>
+        <v>0.93016</v>
+      </c>
+      <c r="K16" t="s" s="7">
+        <v>76</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="N16" s="12">
-        <v>1.2415</v>
-      </c>
-      <c r="O16" s="12">
-        <v>1.23066</v>
+      <c r="M16" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="N16" s="17">
+        <v>0.69639</v>
+      </c>
+      <c r="O16" s="18">
+        <v>0.69589</v>
       </c>
       <c r="P16" s="10"/>
-      <c r="Q16" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="R16" s="12">
-        <v>1.43144</v>
-      </c>
-      <c r="S16" s="12">
-        <v>1.4215</v>
+      <c r="Q16" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="R16" s="17">
+        <v>1.65149</v>
+      </c>
+      <c r="S16" s="18">
+        <v>1.64404</v>
       </c>
       <c r="T16" s="10"/>
-      <c r="U16" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="V16" s="12">
-        <v>130.228</v>
-      </c>
-      <c r="W16" s="12">
-        <v>128.992</v>
+      <c r="U16" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="V16" s="17">
+        <v>1.2252</v>
+      </c>
+      <c r="W16" s="18">
+        <v>1.22564</v>
+      </c>
+      <c r="X16" s="10"/>
+      <c r="Y16" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>1.07854</v>
+      </c>
+      <c r="AA16" s="17">
+        <v>1.07919</v>
+      </c>
+      <c r="AB16" s="19"/>
+      <c r="AC16" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="AD16" s="17">
+        <v>0.94075</v>
+      </c>
+      <c r="AE16" s="17">
+        <v>0.9374</v>
+      </c>
+      <c r="AF16" s="19"/>
+      <c r="AG16" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="AH16" s="17">
+        <v>0.69863</v>
+      </c>
+      <c r="AI16" s="17">
+        <v>0.69916</v>
+      </c>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="AL16" s="17">
+        <v>0.87215</v>
+      </c>
+      <c r="AM16" s="17">
+        <v>0.86815</v>
+      </c>
+      <c r="AN16" s="19"/>
+      <c r="AO16" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="AP16" s="17">
+        <v>0.6476499999999999</v>
+      </c>
+      <c r="AQ16" s="17">
+        <v>0.64745</v>
+      </c>
+      <c r="AR16" s="19"/>
+      <c r="AS16" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="AT16" s="17">
+        <v>0.7424500000000001</v>
+      </c>
+      <c r="AU16" s="17">
+        <v>0.7456</v>
+      </c>
+      <c r="AV16" s="19"/>
+      <c r="AW16" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="AX16" s="17">
+        <v>1.37717</v>
+      </c>
+      <c r="AY16" s="17">
+        <v>1.36986</v>
+      </c>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="BB16" s="17">
+        <v>122.325</v>
+      </c>
+      <c r="BC16" s="17">
+        <v>122.084</v>
+      </c>
+      <c r="BD16" s="19"/>
+      <c r="BE16" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="BF16" s="17">
+        <v>134.525</v>
+      </c>
+      <c r="BG16" s="18">
+        <v>134.026</v>
       </c>
     </row>
     <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" t="s" s="13">
-        <v>23</v>
+      <c r="A17" t="s" s="7">
+        <v>77</v>
       </c>
       <c r="B17" s="9">
-        <v>1.34218</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1.3325</v>
+        <v>1.31755</v>
+      </c>
+      <c r="C17" t="s" s="7">
+        <v>78</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" t="s" s="13">
-        <v>23</v>
+      <c r="E17" t="s" s="7">
+        <v>77</v>
       </c>
       <c r="F17" s="9">
-        <v>0.72638</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0.72542</v>
+        <v>0.7503</v>
+      </c>
+      <c r="G17" t="s" s="7">
+        <v>79</v>
       </c>
       <c r="H17" s="10"/>
-      <c r="I17" t="s" s="13">
-        <v>23</v>
+      <c r="I17" t="s" s="7">
+        <v>77</v>
       </c>
       <c r="J17" s="9">
-        <v>0.83588</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0.83474</v>
+        <v>0.9298999999999999</v>
+      </c>
+      <c r="K17" t="s" s="7">
+        <v>80</v>
       </c>
       <c r="L17" s="10"/>
-      <c r="M17" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="N17" s="12">
-        <v>1.23066</v>
-      </c>
-      <c r="O17" s="12">
-        <v>1.22437</v>
+      <c r="M17" t="s" s="11">
+        <v>77</v>
+      </c>
+      <c r="N17" s="17">
+        <v>0.69433</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0.68893</v>
       </c>
       <c r="P17" s="10"/>
-      <c r="Q17" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="R17" s="12">
-        <v>1.4215</v>
-      </c>
-      <c r="S17" s="12">
-        <v>1.41742</v>
+      <c r="Q17" t="s" s="11">
+        <v>77</v>
+      </c>
+      <c r="R17" s="17">
+        <v>1.64468</v>
+      </c>
+      <c r="S17" s="18">
+        <v>1.63772</v>
       </c>
       <c r="T17" s="10"/>
-      <c r="U17" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="V17" s="12">
-        <v>128.992</v>
-      </c>
-      <c r="W17" s="12">
-        <v>127.827</v>
+      <c r="U17" t="s" s="11">
+        <v>77</v>
+      </c>
+      <c r="V17" s="17">
+        <v>1.22583</v>
+      </c>
+      <c r="W17" s="18">
+        <v>1.22142</v>
+      </c>
+      <c r="X17" s="10"/>
+      <c r="Y17" t="s" s="11">
+        <v>77</v>
+      </c>
+      <c r="Z17" s="17">
+        <v>1.07939</v>
+      </c>
+      <c r="AA17" s="17">
+        <v>1.08565</v>
+      </c>
+      <c r="AB17" s="19"/>
+      <c r="AC17" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="AD17" s="17">
+        <v>0.9363</v>
+      </c>
+      <c r="AE17" s="17">
+        <v>0.93729</v>
+      </c>
+      <c r="AF17" s="19"/>
+      <c r="AG17" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="AH17" s="17">
+        <v>0.6980499999999999</v>
+      </c>
+      <c r="AI17" s="17">
+        <v>0.69943</v>
+      </c>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="AL17" s="17">
+        <v>0.8667</v>
+      </c>
+      <c r="AM17" s="17">
+        <v>0.86246</v>
+      </c>
+      <c r="AN17" s="19"/>
+      <c r="AO17" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="AP17" s="17">
+        <v>0.6463</v>
+      </c>
+      <c r="AQ17" s="17">
+        <v>0.64355</v>
+      </c>
+      <c r="AR17" s="19"/>
+      <c r="AS17" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="AT17" s="17">
+        <v>0.7456</v>
+      </c>
+      <c r="AU17" s="17">
+        <v>0.7456199999999999</v>
+      </c>
+      <c r="AV17" s="19"/>
+      <c r="AW17" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="AX17" s="17">
+        <v>1.37136</v>
+      </c>
+      <c r="AY17" s="17">
+        <v>1.37446</v>
+      </c>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="BB17" s="17">
+        <v>122.07</v>
+      </c>
+      <c r="BC17" s="17">
+        <v>123.815</v>
+      </c>
+      <c r="BD17" s="19"/>
+      <c r="BE17" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="BF17" s="17">
+        <v>134.052</v>
+      </c>
+      <c r="BG17" s="18">
+        <v>136.052</v>
       </c>
     </row>
     <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" t="s" s="13">
-        <v>24</v>
+      <c r="A18" t="s" s="7">
+        <v>81</v>
       </c>
       <c r="B18" s="9">
-        <v>1.3325</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1.34056</v>
+        <v>1.3081</v>
+      </c>
+      <c r="C18" t="s" s="7">
+        <v>82</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" t="s" s="13">
-        <v>24</v>
+      <c r="E18" t="s" s="7">
+        <v>81</v>
       </c>
       <c r="F18" s="9">
-        <v>0.72542</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0.72976</v>
+        <v>0.7488899999999999</v>
+      </c>
+      <c r="G18" t="s" s="7">
+        <v>83</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="I18" t="s" s="13">
-        <v>24</v>
+      <c r="I18" t="s" s="7">
+        <v>81</v>
       </c>
       <c r="J18" s="9">
-        <v>0.83474</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0.82974</v>
+        <v>0.93345</v>
+      </c>
+      <c r="K18" t="s" s="7">
+        <v>84</v>
       </c>
       <c r="L18" s="10"/>
-      <c r="M18" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="N18" s="12">
-        <v>1.22437</v>
-      </c>
-      <c r="O18" s="12">
-        <v>1.23361</v>
+      <c r="M18" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="N18" s="17">
+        <v>0.68893</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0.69345</v>
       </c>
       <c r="P18" s="10"/>
-      <c r="Q18" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="R18" s="12">
-        <v>1.41742</v>
-      </c>
-      <c r="S18" s="12">
-        <v>1.405</v>
+      <c r="Q18" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="R18" s="17">
+        <v>1.63772</v>
+      </c>
+      <c r="S18" s="18">
+        <v>1.63545</v>
       </c>
       <c r="T18" s="10"/>
-      <c r="U18" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="V18" s="12">
-        <v>127.827</v>
-      </c>
-      <c r="W18" s="12">
-        <v>128.486</v>
+      <c r="U18" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="V18" s="17">
+        <v>1.22142</v>
+      </c>
+      <c r="W18" s="18">
+        <v>1.21733</v>
+      </c>
+      <c r="X18" s="10"/>
+      <c r="Y18" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="Z18" s="17">
+        <v>1.08565</v>
+      </c>
+      <c r="AA18" s="17">
+        <v>1.08236</v>
+      </c>
+      <c r="AB18" s="19"/>
+      <c r="AC18" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="AD18" s="17">
+        <v>0.93729</v>
+      </c>
+      <c r="AE18" s="17">
+        <v>0.93803</v>
+      </c>
+      <c r="AF18" s="19"/>
+      <c r="AG18" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="AH18" s="17">
+        <v>0.69943</v>
+      </c>
+      <c r="AI18" s="17">
+        <v>0.69855</v>
+      </c>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="AL18" s="17">
+        <v>0.86246</v>
+      </c>
+      <c r="AM18" s="17">
+        <v>0.8657</v>
+      </c>
+      <c r="AN18" s="19"/>
+      <c r="AO18" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="AP18" s="17">
+        <v>0.64355</v>
+      </c>
+      <c r="AQ18" s="17">
+        <v>0.64535</v>
+      </c>
+      <c r="AR18" s="19"/>
+      <c r="AS18" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="AT18" s="17">
+        <v>0.7456199999999999</v>
+      </c>
+      <c r="AU18" s="17">
+        <v>0.74425</v>
+      </c>
+      <c r="AV18" s="19"/>
+      <c r="AW18" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="AX18" s="17">
+        <v>1.37446</v>
+      </c>
+      <c r="AY18" s="17">
+        <v>1.385</v>
+      </c>
+      <c r="AZ18" s="19"/>
+      <c r="BA18" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="BB18" s="17">
+        <v>123.815</v>
+      </c>
+      <c r="BC18" s="17">
+        <v>122.855</v>
+      </c>
+      <c r="BD18" s="19"/>
+      <c r="BE18" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="BF18" s="17">
+        <v>136.052</v>
+      </c>
+      <c r="BG18" s="18">
+        <v>136.201</v>
       </c>
     </row>
     <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="13">
-        <v>25</v>
+      <c r="A19" t="s" s="7">
+        <v>85</v>
       </c>
       <c r="B19" s="9">
-        <v>1.34056</v>
-      </c>
-      <c r="C19" s="9">
-        <v>1.33487</v>
+        <v>1.30896</v>
+      </c>
+      <c r="C19" t="s" s="7">
+        <v>86</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" t="s" s="13">
-        <v>25</v>
+      <c r="E19" t="s" s="7">
+        <v>85</v>
       </c>
       <c r="F19" s="9">
-        <v>0.72976</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.73282</v>
+        <v>0.75063</v>
+      </c>
+      <c r="G19" t="s" s="7">
+        <v>87</v>
       </c>
       <c r="H19" s="10"/>
-      <c r="I19" t="s" s="13">
-        <v>25</v>
+      <c r="I19" t="s" s="7">
+        <v>85</v>
       </c>
       <c r="J19" s="9">
-        <v>0.82974</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0.8289800000000001</v>
+        <v>0.93068</v>
+      </c>
+      <c r="K19" t="s" s="7">
+        <v>88</v>
       </c>
       <c r="L19" s="10"/>
-      <c r="M19" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="N19" s="12">
-        <v>1.23361</v>
-      </c>
-      <c r="O19" s="12">
-        <v>1.2245</v>
+      <c r="M19" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0.69345</v>
+      </c>
+      <c r="O19" s="18">
+        <v>0.69767</v>
       </c>
       <c r="P19" s="10"/>
-      <c r="Q19" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="R19" s="12">
-        <v>1.405</v>
-      </c>
-      <c r="S19" s="12">
-        <v>1.4033</v>
+      <c r="Q19" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="R19" s="17">
+        <v>1.63545</v>
+      </c>
+      <c r="S19" s="18">
+        <v>1.63831</v>
       </c>
       <c r="T19" s="10"/>
-      <c r="U19" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="V19" s="12">
-        <v>128.486</v>
-      </c>
-      <c r="W19" s="12">
-        <v>127.765</v>
+      <c r="U19" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="V19" s="17">
+        <v>1.21733</v>
+      </c>
+      <c r="W19" s="18">
+        <v>1.21203</v>
+      </c>
+      <c r="X19" s="10"/>
+      <c r="Y19" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="Z19" s="17">
+        <v>1.08228</v>
+      </c>
+      <c r="AA19" s="17">
+        <v>1.07567</v>
+      </c>
+      <c r="AB19" s="19"/>
+      <c r="AC19" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="AD19" s="17">
+        <v>0.93803</v>
+      </c>
+      <c r="AE19" s="17">
+        <v>0.93676</v>
+      </c>
+      <c r="AF19" s="19"/>
+      <c r="AG19" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="AH19" s="17">
+        <v>0.69855</v>
+      </c>
+      <c r="AI19" s="17">
+        <v>0.69273</v>
+      </c>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="AL19" s="17">
+        <v>0.8657</v>
+      </c>
+      <c r="AM19" s="17">
+        <v>0.87025</v>
+      </c>
+      <c r="AN19" s="19"/>
+      <c r="AO19" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="AP19" s="17">
+        <v>0.64535</v>
+      </c>
+      <c r="AQ19" s="17">
+        <v>0.64355</v>
+      </c>
+      <c r="AR19" s="19"/>
+      <c r="AS19" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="AT19" s="17">
+        <v>0.74425</v>
+      </c>
+      <c r="AU19" s="17">
+        <v>0.73908</v>
+      </c>
+      <c r="AV19" s="19"/>
+      <c r="AW19" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="AX19" s="17">
+        <v>1.385</v>
+      </c>
+      <c r="AY19" s="17">
+        <v>1.39194</v>
+      </c>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="BB19" s="17">
+        <v>122.831</v>
+      </c>
+      <c r="BC19" s="17">
+        <v>121.771</v>
+      </c>
+      <c r="BD19" s="19"/>
+      <c r="BE19" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="BF19" s="17">
+        <v>136.201</v>
+      </c>
+      <c r="BG19" s="18">
+        <v>135.901</v>
       </c>
     </row>
     <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" t="s" s="13">
-        <v>26</v>
+      <c r="A20" t="s" s="7">
+        <v>89</v>
       </c>
       <c r="B20" s="9">
-        <v>1.33487</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1.33409</v>
+        <v>1.31312</v>
+      </c>
+      <c r="C20" t="s" s="7">
+        <v>90</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" t="s" s="13">
-        <v>26</v>
+      <c r="E20" t="s" s="7">
+        <v>89</v>
       </c>
       <c r="F20" s="9">
-        <v>0.73282</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0.73505</v>
+        <v>0.75083</v>
+      </c>
+      <c r="G20" t="s" s="7">
+        <v>91</v>
       </c>
       <c r="H20" s="10"/>
-      <c r="I20" t="s" s="13">
-        <v>26</v>
+      <c r="I20" t="s" s="7">
+        <v>89</v>
       </c>
       <c r="J20" s="9">
-        <v>0.8289800000000001</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0.82658</v>
+        <v>0.92318</v>
+      </c>
+      <c r="K20" t="s" s="7">
+        <v>92</v>
       </c>
       <c r="L20" s="10"/>
-      <c r="M20" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="N20" s="12">
-        <v>1.2245</v>
-      </c>
-      <c r="O20" s="12">
-        <v>1.22588</v>
+      <c r="M20" t="s" s="11">
+        <v>89</v>
+      </c>
+      <c r="N20" s="17">
+        <v>0.69767</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0.69314</v>
       </c>
       <c r="P20" s="10"/>
-      <c r="Q20" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="R20" s="12">
-        <v>1.4033</v>
-      </c>
-      <c r="S20" s="12">
-        <v>1.399785</v>
+      <c r="Q20" t="s" s="11">
+        <v>89</v>
+      </c>
+      <c r="R20" s="17">
+        <v>1.63831</v>
+      </c>
+      <c r="S20" s="18">
+        <v>1.6434</v>
       </c>
       <c r="T20" s="10"/>
-      <c r="U20" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="V20" s="12">
-        <v>127.765</v>
-      </c>
-      <c r="W20" s="12">
-        <v>127.324999999999</v>
+      <c r="U20" t="s" s="11">
+        <v>89</v>
+      </c>
+      <c r="V20" s="17">
+        <v>1.21203</v>
+      </c>
+      <c r="W20" s="18">
+        <v>1.21078</v>
+      </c>
+      <c r="X20" s="10"/>
+      <c r="Y20" t="s" s="11">
+        <v>89</v>
+      </c>
+      <c r="Z20" s="17">
+        <v>1.076</v>
+      </c>
+      <c r="AA20" s="17">
+        <v>1.079</v>
+      </c>
+      <c r="AB20" s="19"/>
+      <c r="AC20" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="AD20" s="17">
+        <v>0.93676</v>
+      </c>
+      <c r="AE20" s="17">
+        <v>0.9344</v>
+      </c>
+      <c r="AF20" s="19"/>
+      <c r="AG20" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="AH20" s="17">
+        <v>0.69273</v>
+      </c>
+      <c r="AI20" s="17">
+        <v>0.68892</v>
+      </c>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="AL20" s="17">
+        <v>0.87025</v>
+      </c>
+      <c r="AM20" s="17">
+        <v>0.86681</v>
+      </c>
+      <c r="AN20" s="19"/>
+      <c r="AO20" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="AP20" s="17">
+        <v>0.64355</v>
+      </c>
+      <c r="AQ20" s="17">
+        <v>0.6392600000000001</v>
+      </c>
+      <c r="AR20" s="19"/>
+      <c r="AS20" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="AT20" s="17">
+        <v>0.73908</v>
+      </c>
+      <c r="AU20" s="17">
+        <v>0.73685</v>
+      </c>
+      <c r="AV20" s="19"/>
+      <c r="AW20" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="AX20" s="17">
+        <v>1.39194</v>
+      </c>
+      <c r="AY20" s="17">
+        <v>1.38359</v>
+      </c>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="BB20" s="17">
+        <v>121.771</v>
+      </c>
+      <c r="BC20" s="17">
+        <v>121.653</v>
+      </c>
+      <c r="BD20" s="19"/>
+      <c r="BE20" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="BF20" s="17">
+        <v>135.901</v>
+      </c>
+      <c r="BG20" s="18">
+        <v>134.615</v>
+      </c>
+    </row>
+    <row r="21" ht="15.35" customHeight="1">
+      <c r="A21" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="B21" s="21">
+        <v>1.31337</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1.31129</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.74823</v>
+      </c>
+      <c r="G21" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" t="s" s="7">
+        <v>93</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.92255</v>
+      </c>
+      <c r="K21" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" t="s" s="22">
+        <v>93</v>
+      </c>
+      <c r="N21" s="23">
+        <v>0.69314</v>
+      </c>
+      <c r="O21" s="24">
+        <v>0.69199</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" t="s" s="22">
+        <v>93</v>
+      </c>
+      <c r="R21" s="23">
+        <v>1.6434</v>
+      </c>
+      <c r="S21" s="24">
+        <v>1.64018</v>
+      </c>
+      <c r="T21" s="10"/>
+      <c r="U21" t="s" s="22">
+        <v>93</v>
+      </c>
+      <c r="V21" s="23">
+        <v>1.21078</v>
+      </c>
+      <c r="W21" s="24">
+        <v>1.21231</v>
+      </c>
+      <c r="X21" s="10"/>
+      <c r="Y21" t="s" s="22">
+        <v>93</v>
+      </c>
+      <c r="Z21" s="23">
+        <v>1.079</v>
+      </c>
+      <c r="AA21" s="23">
+        <v>1.08225</v>
+      </c>
+      <c r="AB21" s="25"/>
+      <c r="AC21" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="AD21" s="23">
+        <v>0.9344</v>
+      </c>
+      <c r="AE21" s="23">
+        <v>0.9378</v>
+      </c>
+      <c r="AF21" s="25"/>
+      <c r="AG21" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="AH21" s="23">
+        <v>0.68892</v>
+      </c>
+      <c r="AI21" s="23">
+        <v>0.69384</v>
+      </c>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="AL21" s="23">
+        <v>0.86681</v>
+      </c>
+      <c r="AM21" s="23">
+        <v>0.8656</v>
+      </c>
+      <c r="AN21" s="25"/>
+      <c r="AO21" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="AP21" s="23">
+        <v>0.6392600000000001</v>
+      </c>
+      <c r="AQ21" s="23">
+        <v>0.6404</v>
+      </c>
+      <c r="AR21" s="25"/>
+      <c r="AS21" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="AT21" s="23">
+        <v>0.73685</v>
+      </c>
+      <c r="AU21" s="23">
+        <v>0.7393999999999999</v>
+      </c>
+      <c r="AV21" s="25"/>
+      <c r="AW21" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="AX21" s="23">
+        <v>1.38359</v>
+      </c>
+      <c r="AY21" s="23">
+        <v>1.38186</v>
+      </c>
+      <c r="AZ21" s="25"/>
+      <c r="BA21" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="BB21" s="23">
+        <v>121.653</v>
+      </c>
+      <c r="BC21" s="23">
+        <v>122.541</v>
+      </c>
+      <c r="BD21" s="25"/>
+      <c r="BE21" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="BF21" s="23">
+        <v>134.615</v>
+      </c>
+      <c r="BG21" s="24">
+        <v>135.293</v>
       </c>
     </row>
   </sheetData>
